--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.8019676875148</v>
+        <v>771.7891373643985</v>
       </c>
       <c r="AB2" t="n">
-        <v>984.8648076116875</v>
+        <v>1055.995946675658</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.8706926396662</v>
+        <v>955.2131756245519</v>
       </c>
       <c r="AD2" t="n">
-        <v>719801.9676875147</v>
+        <v>771789.1373643985</v>
       </c>
       <c r="AE2" t="n">
-        <v>984864.8076116876</v>
+        <v>1055995.946675658</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.000950807663981e-06</v>
+        <v>3.382706619933589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>890870.6926396663</v>
+        <v>955213.175624552</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.7354770614724</v>
+        <v>294.8083374746226</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.8545149035852</v>
+        <v>403.3697733587099</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.4150664636788</v>
+        <v>364.8727283223865</v>
       </c>
       <c r="AD3" t="n">
-        <v>263735.4770614724</v>
+        <v>294808.3374746226</v>
       </c>
       <c r="AE3" t="n">
-        <v>360854.5149035852</v>
+        <v>403369.7733587099</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.689854824893924e-06</v>
+        <v>6.237882658062137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.491666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>326415.0664636788</v>
+        <v>364872.7283223865</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.3411839843946</v>
+        <v>232.4992957435651</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.4838904734605</v>
+        <v>318.1157935812126</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.1920946108228</v>
+        <v>287.7552687202365</v>
       </c>
       <c r="AD4" t="n">
-        <v>201341.1839843946</v>
+        <v>232499.2957435651</v>
       </c>
       <c r="AE4" t="n">
-        <v>275483.8904734605</v>
+        <v>318115.7935812126</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.365007955388886e-06</v>
+        <v>7.379262523697355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.641666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>249192.0946108228</v>
+        <v>287755.2687202365</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.4287210469321</v>
+        <v>212.1724381100728</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.9212213754298</v>
+        <v>290.3036902094137</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.9238276161782</v>
+        <v>262.5975134597009</v>
       </c>
       <c r="AD5" t="n">
-        <v>191428.721046932</v>
+        <v>212172.4381100728</v>
       </c>
       <c r="AE5" t="n">
-        <v>261921.2213754297</v>
+        <v>290303.6902094136</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.556700093130973e-06</v>
+        <v>7.703327593586005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.447222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>236923.8276161782</v>
+        <v>262597.5134597009</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.9593454027859</v>
+        <v>200.7030624659268</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.2283156259748</v>
+        <v>274.6107844599587</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.7286307663147</v>
+        <v>248.4023166098374</v>
       </c>
       <c r="AD6" t="n">
-        <v>179959.345402786</v>
+        <v>200703.0624659268</v>
       </c>
       <c r="AE6" t="n">
-        <v>246228.3156259748</v>
+        <v>274610.7844599587</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.769399588433838e-06</v>
+        <v>8.062906643736427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.248611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>222728.6307663147</v>
+        <v>248402.3166098374</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.8884940335207</v>
+        <v>196.6322110966615</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.6583971892614</v>
+        <v>269.0408660232454</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.6902975277699</v>
+        <v>243.3639833712926</v>
       </c>
       <c r="AD7" t="n">
-        <v>175888.4940335207</v>
+        <v>196632.2110966615</v>
       </c>
       <c r="AE7" t="n">
-        <v>240658.3971892614</v>
+        <v>269040.8660232454</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.849052485851782e-06</v>
+        <v>8.197563818895637e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>217690.2975277699</v>
+        <v>243363.9833712926</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>168.9875354429631</v>
+        <v>189.7312525061039</v>
       </c>
       <c r="AB8" t="n">
-        <v>231.2162011968592</v>
+        <v>259.5986700308431</v>
       </c>
       <c r="AC8" t="n">
-        <v>209.1492514686742</v>
+        <v>234.8229373121969</v>
       </c>
       <c r="AD8" t="n">
-        <v>168987.5354429631</v>
+        <v>189731.2525061039</v>
       </c>
       <c r="AE8" t="n">
-        <v>231216.2011968592</v>
+        <v>259598.6700308431</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.979764932896615e-06</v>
+        <v>8.418539696079984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.069444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>209149.2514686742</v>
+        <v>234822.9373121969</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>153.5570005906608</v>
+        <v>184.6297714952597</v>
       </c>
       <c r="AB9" t="n">
-        <v>210.1034626647969</v>
+        <v>252.6185986503513</v>
       </c>
       <c r="AC9" t="n">
-        <v>190.0514830701905</v>
+        <v>228.5090341476653</v>
       </c>
       <c r="AD9" t="n">
-        <v>153557.0005906608</v>
+        <v>184629.7714952597</v>
       </c>
       <c r="AE9" t="n">
-        <v>210103.4626647969</v>
+        <v>252618.5986503513</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.068170895964884e-06</v>
+        <v>8.567994363014933e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.997222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>190051.4830701905</v>
+        <v>228509.0341476653</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>151.0547969659589</v>
+        <v>182.1275678705577</v>
       </c>
       <c r="AB10" t="n">
-        <v>206.6798372760484</v>
+        <v>249.1949732616029</v>
       </c>
       <c r="AC10" t="n">
-        <v>186.9546036834547</v>
+        <v>225.4121547609295</v>
       </c>
       <c r="AD10" t="n">
-        <v>151054.7969659589</v>
+        <v>182127.5678705577</v>
       </c>
       <c r="AE10" t="n">
-        <v>206679.8372760484</v>
+        <v>249194.9732616029</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.11485391276661e-06</v>
+        <v>8.646914319152199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.961111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>186954.6036834547</v>
+        <v>225412.1547609295</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.0552561183543</v>
+        <v>167.8842245275157</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.2074890410694</v>
+        <v>229.7066025277025</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.0045286835313</v>
+        <v>207.7837267777663</v>
       </c>
       <c r="AD11" t="n">
-        <v>147055.2561183543</v>
+        <v>167884.2245275157</v>
       </c>
       <c r="AE11" t="n">
-        <v>201207.4890410693</v>
+        <v>229706.6025277025</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.188379664229329e-06</v>
+        <v>8.771213250068396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.905555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>182004.5286835313</v>
+        <v>207783.7267777663</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>146.1226536970615</v>
+        <v>166.9516221062229</v>
       </c>
       <c r="AB12" t="n">
-        <v>199.9314612647421</v>
+        <v>228.4305747513753</v>
       </c>
       <c r="AC12" t="n">
-        <v>180.8502832072602</v>
+        <v>206.6294813014951</v>
       </c>
       <c r="AD12" t="n">
-        <v>146122.6536970615</v>
+        <v>166951.6221062229</v>
       </c>
       <c r="AE12" t="n">
-        <v>199931.4612647421</v>
+        <v>228430.5747513753</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.185024322396704e-06</v>
+        <v>8.765540878221028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.908333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>180850.2832072602</v>
+        <v>206629.4813014951</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>141.0676675405333</v>
+        <v>161.8966359496947</v>
       </c>
       <c r="AB13" t="n">
-        <v>193.0150061951337</v>
+        <v>221.5141196817669</v>
       </c>
       <c r="AC13" t="n">
-        <v>174.5939249021873</v>
+        <v>200.3731229964223</v>
       </c>
       <c r="AD13" t="n">
-        <v>141067.6675405333</v>
+        <v>161896.6359496947</v>
       </c>
       <c r="AE13" t="n">
-        <v>193015.0061951337</v>
+        <v>221514.1196817669</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.27255497889994e-06</v>
+        <v>8.913515795978402e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.843055555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>174593.9249021873</v>
+        <v>200373.1229964223</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>141.138193499482</v>
+        <v>161.9671619086434</v>
       </c>
       <c r="AB14" t="n">
-        <v>193.111502923553</v>
+        <v>221.6106164101862</v>
       </c>
       <c r="AC14" t="n">
-        <v>174.6812121182803</v>
+        <v>200.4604102125153</v>
       </c>
       <c r="AD14" t="n">
-        <v>141138.193499482</v>
+        <v>161967.1619086434</v>
       </c>
       <c r="AE14" t="n">
-        <v>193111.502923553</v>
+        <v>221610.6164101862</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.254173541034261e-06</v>
+        <v>8.882441063249355e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.856944444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>174681.2121182803</v>
+        <v>200460.4102125153</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>138.5757124943215</v>
+        <v>159.4046809034829</v>
       </c>
       <c r="AB15" t="n">
-        <v>189.6054033636109</v>
+        <v>218.104516850244</v>
       </c>
       <c r="AC15" t="n">
-        <v>171.5097297794963</v>
+        <v>197.2889278737312</v>
       </c>
       <c r="AD15" t="n">
-        <v>138575.7124943215</v>
+        <v>159404.6809034829</v>
       </c>
       <c r="AE15" t="n">
-        <v>189605.4033636109</v>
+        <v>218104.516850244</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.277806818290135e-06</v>
+        <v>8.922394291043846e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.838888888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>171509.7297794963</v>
+        <v>197288.9278737312</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>136.8153288123128</v>
+        <v>157.6442972214742</v>
       </c>
       <c r="AB16" t="n">
-        <v>187.1967687472408</v>
+        <v>215.695882233874</v>
       </c>
       <c r="AC16" t="n">
-        <v>169.3309718703719</v>
+        <v>195.1101699646069</v>
       </c>
       <c r="AD16" t="n">
-        <v>136815.3288123128</v>
+        <v>157644.2972214742</v>
       </c>
       <c r="AE16" t="n">
-        <v>187196.7687472408</v>
+        <v>215695.882233874</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.303044824248568e-06</v>
+        <v>8.965060392330556e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.820833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>169330.9718703719</v>
+        <v>195110.1699646069</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>135.9098005933589</v>
+        <v>156.7387690025203</v>
       </c>
       <c r="AB17" t="n">
-        <v>185.9577850889832</v>
+        <v>214.4568985756163</v>
       </c>
       <c r="AC17" t="n">
-        <v>168.2102350735335</v>
+        <v>193.9894331677684</v>
       </c>
       <c r="AD17" t="n">
-        <v>135909.8005933589</v>
+        <v>156738.7690025202</v>
       </c>
       <c r="AE17" t="n">
-        <v>185957.7850889832</v>
+        <v>214456.8985756163</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.30552485951616e-06</v>
+        <v>8.969253015000347e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>168210.2350735335</v>
+        <v>193989.4331677684</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>135.9168507073275</v>
+        <v>156.7458191164889</v>
       </c>
       <c r="AB18" t="n">
-        <v>185.9674313659441</v>
+        <v>214.4665448525773</v>
       </c>
       <c r="AC18" t="n">
-        <v>168.2189607233599</v>
+        <v>193.9981588175949</v>
       </c>
       <c r="AD18" t="n">
-        <v>135916.8507073275</v>
+        <v>156745.8191164889</v>
       </c>
       <c r="AE18" t="n">
-        <v>185967.4313659441</v>
+        <v>214466.5448525773</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.315153231731516e-06</v>
+        <v>8.985530255953659e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.8125</v>
       </c>
       <c r="AH18" t="n">
-        <v>168218.9607233599</v>
+        <v>193998.1588175949</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.547477896721</v>
+        <v>490.8296354068784</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.7764948413247</v>
+        <v>671.5747610389523</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.2483521757919</v>
+        <v>607.4806084064909</v>
       </c>
       <c r="AD2" t="n">
-        <v>440547.477896721</v>
+        <v>490829.6354068784</v>
       </c>
       <c r="AE2" t="n">
-        <v>602776.4948413247</v>
+        <v>671574.7610389523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.627286184860592e-06</v>
+        <v>4.549910589026139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.977777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>545248.3521757919</v>
+        <v>607480.6084064909</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.5593953595865</v>
+        <v>236.7406205558576</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.3061186570898</v>
+        <v>323.9189613034332</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.0270785607941</v>
+        <v>293.0045902598472</v>
       </c>
       <c r="AD3" t="n">
-        <v>216559.3953595865</v>
+        <v>236740.6205558576</v>
       </c>
       <c r="AE3" t="n">
-        <v>296306.1186570898</v>
+        <v>323918.9613034332</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171301634186153e-06</v>
+        <v>7.223822659583117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>268027.0785607941</v>
+        <v>293004.5902598472</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.7288128083119</v>
+        <v>204.9952893506036</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.7541113442638</v>
+        <v>280.4835986432564</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.6316137002641</v>
+        <v>253.7146376500295</v>
       </c>
       <c r="AD4" t="n">
-        <v>184728.8128083119</v>
+        <v>204995.2893506036</v>
       </c>
       <c r="AE4" t="n">
-        <v>252754.1113442638</v>
+        <v>280483.5986432564</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.551608440197337e-06</v>
+        <v>7.882434566317903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.605555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>228631.6137002641</v>
+        <v>253714.6376500295</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.5420622139407</v>
+        <v>183.6379465556401</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.7654644875907</v>
+        <v>251.2615400117364</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.4096026137612</v>
+        <v>227.2814912808756</v>
       </c>
       <c r="AD5" t="n">
-        <v>163542.0622139407</v>
+        <v>183637.9465556401</v>
       </c>
       <c r="AE5" t="n">
-        <v>223765.4644875907</v>
+        <v>251261.5400117364</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.965871211030948e-06</v>
+        <v>8.599851107582579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.220833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>202409.6026137612</v>
+        <v>227281.4912808756</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.2560250781212</v>
+        <v>178.3519094198206</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.5328752748663</v>
+        <v>244.028950799012</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.8672815644942</v>
+        <v>220.7391702316086</v>
       </c>
       <c r="AD6" t="n">
-        <v>158256.0250781212</v>
+        <v>178351.9094198206</v>
       </c>
       <c r="AE6" t="n">
-        <v>216532.8752748664</v>
+        <v>244028.950799012</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.080717829830356e-06</v>
+        <v>8.798741449259234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>195867.2815644942</v>
+        <v>220739.1702316086</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.1416171404571</v>
+        <v>171.2375014821565</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.7986284690325</v>
+        <v>234.2947039931782</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.0620576117049</v>
+        <v>211.9339462788193</v>
       </c>
       <c r="AD7" t="n">
-        <v>151141.6171404571</v>
+        <v>171237.5014821565</v>
       </c>
       <c r="AE7" t="n">
-        <v>206798.6284690325</v>
+        <v>234294.7039931782</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.228614921056928e-06</v>
+        <v>9.054868301878317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.008333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>187062.0576117049</v>
+        <v>211933.9462788193</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.6283286809918</v>
+        <v>167.7293505034285</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.3091510345897</v>
+        <v>229.4946970553869</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.337189953455</v>
+        <v>207.5920452663172</v>
       </c>
       <c r="AD8" t="n">
-        <v>137628.3286809918</v>
+        <v>167729.3505034285</v>
       </c>
       <c r="AE8" t="n">
-        <v>188309.1510345897</v>
+        <v>229494.6970553869</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.287622842148345e-06</v>
+        <v>9.157057688994705e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.963888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>170337.1899534549</v>
+        <v>207592.0452663172</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.3386226069237</v>
+        <v>152.5197582946437</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.0715418186915</v>
+        <v>208.6842619954864</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.7903280030714</v>
+        <v>188.7677289208979</v>
       </c>
       <c r="AD9" t="n">
-        <v>132338.6226069237</v>
+        <v>152519.7582946437</v>
       </c>
       <c r="AE9" t="n">
-        <v>181071.5418186915</v>
+        <v>208684.2619954864</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.389641652014837e-06</v>
+        <v>9.333732946515624e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>163790.3280030714</v>
+        <v>188767.7289208979</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>129.9490768908257</v>
+        <v>150.1302125785457</v>
       </c>
       <c r="AB10" t="n">
-        <v>177.802059950611</v>
+        <v>205.4147801274059</v>
       </c>
       <c r="AC10" t="n">
-        <v>160.8328808957328</v>
+        <v>185.8102818135594</v>
       </c>
       <c r="AD10" t="n">
-        <v>129949.0768908257</v>
+        <v>150130.2125785457</v>
       </c>
       <c r="AE10" t="n">
-        <v>177802.059950611</v>
+        <v>205414.7801274059</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.421032055050681e-06</v>
+        <v>9.388094564214368e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>160832.8808957328</v>
+        <v>185810.2818135594</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>124.926592552933</v>
+        <v>145.107728240653</v>
       </c>
       <c r="AB11" t="n">
-        <v>170.9300753031387</v>
+        <v>198.5427954799336</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.6167488181221</v>
+        <v>179.5941497359487</v>
       </c>
       <c r="AD11" t="n">
-        <v>124926.592552933</v>
+        <v>145107.728240653</v>
       </c>
       <c r="AE11" t="n">
-        <v>170930.0753031387</v>
+        <v>198542.7954799336</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.508713901992148e-06</v>
+        <v>9.539941198267111e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.805555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>154616.7488181221</v>
+        <v>179594.1497359487</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.6691433652491</v>
+        <v>144.8502790529691</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.5778219666933</v>
+        <v>198.1905421434882</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.2981140457162</v>
+        <v>179.2755149635427</v>
       </c>
       <c r="AD12" t="n">
-        <v>124669.1433652491</v>
+        <v>144850.2790529691</v>
       </c>
       <c r="AE12" t="n">
-        <v>170577.8219666933</v>
+        <v>198190.5421434882</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.493924192869492e-06</v>
+        <v>9.514328513005204e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.815277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>154298.1140457162</v>
+        <v>179275.5149635428</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.6210536612764</v>
+        <v>144.8021893489964</v>
       </c>
       <c r="AB13" t="n">
-        <v>170.5120235121498</v>
+        <v>198.1247436889448</v>
       </c>
       <c r="AC13" t="n">
-        <v>154.2385953033257</v>
+        <v>179.2159962211522</v>
       </c>
       <c r="AD13" t="n">
-        <v>124621.0536612764</v>
+        <v>144802.1893489964</v>
       </c>
       <c r="AE13" t="n">
-        <v>170512.0235121498</v>
+        <v>198124.7436889448</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.49362236207107e-06</v>
+        <v>9.513805805142715e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.815277777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>154238.5953033257</v>
+        <v>179215.9962211523</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.1469542218539</v>
+        <v>185.3777749558355</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.6978367694263</v>
+        <v>253.6420499846944</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.871236207648</v>
+        <v>229.434808723082</v>
       </c>
       <c r="AD2" t="n">
-        <v>167146.954221854</v>
+        <v>185377.7749558355</v>
       </c>
       <c r="AE2" t="n">
-        <v>228697.8367694263</v>
+        <v>253642.0499846944</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.56699716604575e-06</v>
+        <v>8.641741408997886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.120833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>206871.236207648</v>
+        <v>229434.808723082</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.4438591601146</v>
+        <v>138.5893390395245</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.7966017108479</v>
+        <v>189.6240478039183</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.0686453370932</v>
+        <v>171.5265948205884</v>
       </c>
       <c r="AD3" t="n">
-        <v>120443.8591601146</v>
+        <v>138589.3390395245</v>
       </c>
       <c r="AE3" t="n">
-        <v>164796.6017108478</v>
+        <v>189624.0478039183</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.576552771150627e-06</v>
+        <v>1.055203785984384e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>149068.6453370932</v>
+        <v>171526.5948205884</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.76627265998683</v>
+        <v>117.9970038854173</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.5046156306529</v>
+        <v>161.4487063763725</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.4768067003312</v>
+        <v>146.0402684345386</v>
       </c>
       <c r="AD4" t="n">
-        <v>99766.27265998682</v>
+        <v>117997.0038854173</v>
       </c>
       <c r="AE4" t="n">
-        <v>136504.6156306529</v>
+        <v>161448.7063763725</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.915372767392664e-06</v>
+        <v>1.119315820331374e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.954166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>123476.8067003312</v>
+        <v>146040.2684345386</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.11876800413694</v>
+        <v>115.3494992295674</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.8821829608588</v>
+        <v>157.8262737065785</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.200093920425</v>
+        <v>142.7635556546323</v>
       </c>
       <c r="AD5" t="n">
-        <v>97118.76800413695</v>
+        <v>115349.4992295674</v>
       </c>
       <c r="AE5" t="n">
-        <v>132882.1829608588</v>
+        <v>157826.2737065785</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.014728531698231e-06</v>
+        <v>1.138116068971893e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>120200.093920425</v>
+        <v>142763.5556546323</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.1475718798328</v>
+        <v>257.6374642167498</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.5298171232355</v>
+        <v>352.5109447039292</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.6069714189488</v>
+        <v>318.8677948937097</v>
       </c>
       <c r="AD2" t="n">
-        <v>229147.5718798328</v>
+        <v>257637.4642167498</v>
       </c>
       <c r="AE2" t="n">
-        <v>313529.8171232356</v>
+        <v>352510.9447039292</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.78478230336207e-06</v>
+        <v>6.895051397461331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>283606.9714189488</v>
+        <v>318867.7948937097</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.5435168977578</v>
+        <v>163.4515271096818</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.770816629337</v>
+        <v>223.6415903638169</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.8958474633737</v>
+        <v>202.297550862502</v>
       </c>
       <c r="AD3" t="n">
-        <v>144543.5168977578</v>
+        <v>163451.5271096819</v>
       </c>
       <c r="AE3" t="n">
-        <v>197770.816629337</v>
+        <v>223641.5903638169</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.118872553825667e-06</v>
+        <v>9.325474103049262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.370833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>178895.8474633736</v>
+        <v>202297.550862502</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.7155976043115</v>
+        <v>151.6236078162356</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.5873356410804</v>
+        <v>207.4581093755603</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.2568951869728</v>
+        <v>187.6585985861012</v>
       </c>
       <c r="AD4" t="n">
-        <v>132715.5976043115</v>
+        <v>151623.6078162356</v>
       </c>
       <c r="AE4" t="n">
-        <v>181587.3356410804</v>
+        <v>207458.1093755603</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.439466636475415e-06</v>
+        <v>9.909526896687709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.113888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>164256.8951869728</v>
+        <v>187658.5985861012</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.6782384475144</v>
+        <v>133.6715000054591</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.9078250906383</v>
+        <v>182.8952434777674</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.9327624855465</v>
+        <v>165.4399781353871</v>
       </c>
       <c r="AD5" t="n">
-        <v>114678.2384475144</v>
+        <v>133671.5000054591</v>
       </c>
       <c r="AE5" t="n">
-        <v>156907.8250906383</v>
+        <v>182895.2434777674</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.657277289612329e-06</v>
+        <v>1.030633060372248e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.955555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>141932.7624855465</v>
+        <v>165439.9781353871</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.2801179838323</v>
+        <v>128.273379541777</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.521878523965</v>
+        <v>175.5092969110941</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.251720292953</v>
+        <v>158.7589359427936</v>
       </c>
       <c r="AD6" t="n">
-        <v>109280.1179838323</v>
+        <v>128273.379541777</v>
       </c>
       <c r="AE6" t="n">
-        <v>149521.878523965</v>
+        <v>175509.2969110941</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.767471436613549e-06</v>
+        <v>1.050708040816906e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>135251.720292953</v>
+        <v>158758.9359427936</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.0856600637322</v>
+        <v>126.0789216216769</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.5193243850348</v>
+        <v>172.5067427721639</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.5357257069302</v>
+        <v>156.0429413567707</v>
       </c>
       <c r="AD7" t="n">
-        <v>107085.6600637322</v>
+        <v>126078.9216216769</v>
       </c>
       <c r="AE7" t="n">
-        <v>146519.3243850348</v>
+        <v>172506.7427721639</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.823696227992826e-06</v>
+        <v>1.06095097674554e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.841666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>132535.7257069302</v>
+        <v>156042.9413567708</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.2214786629182</v>
+        <v>148.5440877095482</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.2288191376202</v>
+        <v>203.244574106754</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.2687353462938</v>
+        <v>183.8471972096145</v>
       </c>
       <c r="AD2" t="n">
-        <v>122221.4786629182</v>
+        <v>148544.0877095482</v>
       </c>
       <c r="AE2" t="n">
-        <v>167228.8191376202</v>
+        <v>203244.5741067539</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.25041258401105e-06</v>
+        <v>1.028911697927163e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.626388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>151268.7353462938</v>
+        <v>183847.1972096145</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.14588484914493</v>
+        <v>116.3831530412033</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.3415766063095</v>
+        <v>159.2405644532457</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.5700296460257</v>
+        <v>144.0428684774076</v>
       </c>
       <c r="AD3" t="n">
-        <v>90145.88484914493</v>
+        <v>116383.1530412033</v>
       </c>
       <c r="AE3" t="n">
-        <v>123341.5766063095</v>
+        <v>159240.5644532457</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.081523863132319e-06</v>
+        <v>1.19178273019065e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.994444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>111570.0296460257</v>
+        <v>144042.8684774076</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.04571155279802</v>
+        <v>116.2829797448564</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.2045150829138</v>
+        <v>159.10350292985</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.4460490820558</v>
+        <v>143.9188879134377</v>
       </c>
       <c r="AD4" t="n">
-        <v>90045.71155279802</v>
+        <v>116282.9797448564</v>
       </c>
       <c r="AE4" t="n">
-        <v>123204.5150829138</v>
+        <v>159103.50292985</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.109507407883877e-06</v>
+        <v>1.197266603330835e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.976388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>111446.0490820558</v>
+        <v>143918.8879134377</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.7711422350039</v>
+        <v>539.3887168490477</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.440681035748</v>
+        <v>738.0154385436073</v>
       </c>
       <c r="AC2" t="n">
-        <v>617.3095002492068</v>
+        <v>667.580280900178</v>
       </c>
       <c r="AD2" t="n">
-        <v>498771.1422350039</v>
+        <v>539388.7168490477</v>
       </c>
       <c r="AE2" t="n">
-        <v>682440.681035748</v>
+        <v>738015.4385436072</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.463996667203389e-06</v>
+        <v>4.239259960746926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.430555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>617309.5002492069</v>
+        <v>667580.280900178</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.2017112353527</v>
+        <v>248.5532137239356</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.2356488610318</v>
+        <v>340.0814724108202</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.436316759313</v>
+        <v>307.6245739913771</v>
       </c>
       <c r="AD3" t="n">
-        <v>228201.7112353527</v>
+        <v>248553.2137239356</v>
       </c>
       <c r="AE3" t="n">
-        <v>312235.6488610319</v>
+        <v>340081.4724108202</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.037365100525372e-06</v>
+        <v>6.946210782419621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.144444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>282436.316759313</v>
+        <v>307624.5739913771</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.895736145746</v>
+        <v>224.3375147612222</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.2967002706501</v>
+        <v>306.9484847688124</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.9771555431542</v>
+        <v>277.6537521874718</v>
       </c>
       <c r="AD4" t="n">
-        <v>193895.736145746</v>
+        <v>224337.5147612222</v>
       </c>
       <c r="AE4" t="n">
-        <v>265296.7002706501</v>
+        <v>306948.4847688124</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.429959410170829e-06</v>
+        <v>7.621661914253351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.688888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>239977.1555431542</v>
+        <v>277653.7521874718</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.6747171085206</v>
+        <v>190.9408787425319</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.5246775848757</v>
+        <v>261.2537340124665</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.2374101101861</v>
+        <v>236.3200443103115</v>
       </c>
       <c r="AD5" t="n">
-        <v>170674.7171085207</v>
+        <v>190940.8787425319</v>
       </c>
       <c r="AE5" t="n">
-        <v>233524.6775848758</v>
+        <v>261253.7340124664</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.852016988006821e-06</v>
+        <v>8.347804045314221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.280555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>211237.4101101861</v>
+        <v>236320.0443103115</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.7737510332912</v>
+        <v>180.0399126673025</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.6094948840725</v>
+        <v>246.3385513116631</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.7457115127523</v>
+        <v>222.8283457128777</v>
       </c>
       <c r="AD6" t="n">
-        <v>159773.7510332912</v>
+        <v>180039.9126673025</v>
       </c>
       <c r="AE6" t="n">
-        <v>218609.4948840725</v>
+        <v>246338.5513116631</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.0838345803689e-06</v>
+        <v>8.746641856492231e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.086111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>197745.7115127523</v>
+        <v>222828.3457128777</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.5668151116274</v>
+        <v>176.8329767456388</v>
       </c>
       <c r="AB7" t="n">
-        <v>214.2216236760266</v>
+        <v>241.9506801036173</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.7766125743851</v>
+        <v>218.8592467745104</v>
       </c>
       <c r="AD7" t="n">
-        <v>156566.8151116275</v>
+        <v>176832.9767456388</v>
       </c>
       <c r="AE7" t="n">
-        <v>214221.6236760266</v>
+        <v>241950.6801036173</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.145752311490126e-06</v>
+        <v>8.853170149284293e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.036111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>193776.6125743851</v>
+        <v>218859.2467745104</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.9283220657137</v>
+        <v>160.2797350457456</v>
       </c>
       <c r="AB8" t="n">
-        <v>191.4561034521114</v>
+        <v>219.3018045323514</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.1838016490248</v>
+        <v>198.3719480998624</v>
       </c>
       <c r="AD8" t="n">
-        <v>139928.3220657137</v>
+        <v>160279.7350457456</v>
       </c>
       <c r="AE8" t="n">
-        <v>191456.1034521114</v>
+        <v>219301.8045323514</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.277663999531e-06</v>
+        <v>9.080121729580425e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.936111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>173183.8016490249</v>
+        <v>198371.9480998624</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.6151894970362</v>
+        <v>158.9666024770681</v>
       </c>
       <c r="AB9" t="n">
-        <v>189.6594175403275</v>
+        <v>217.5051186205674</v>
       </c>
       <c r="AC9" t="n">
-        <v>171.5585889189965</v>
+        <v>196.7467353698341</v>
       </c>
       <c r="AD9" t="n">
-        <v>138615.1894970362</v>
+        <v>158966.6024770681</v>
       </c>
       <c r="AE9" t="n">
-        <v>189659.4175403275</v>
+        <v>217505.1186205674</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.290526136913669e-06</v>
+        <v>9.102250795232884e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.926388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>171558.5889189965</v>
+        <v>196746.7353698341</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.4254159671249</v>
+        <v>154.7768289471568</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.9267845569428</v>
+        <v>211.7724856371827</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.3730703817433</v>
+        <v>191.5612168325809</v>
       </c>
       <c r="AD10" t="n">
-        <v>134425.4159671249</v>
+        <v>154776.8289471568</v>
       </c>
       <c r="AE10" t="n">
-        <v>183926.7845569428</v>
+        <v>211772.4856371827</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.368895439105753e-06</v>
+        <v>9.237083706882739e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.869444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>166373.0703817433</v>
+        <v>191561.2168325809</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.9966717275517</v>
+        <v>152.3480847075836</v>
       </c>
       <c r="AB11" t="n">
-        <v>180.6036695397269</v>
+        <v>208.4493706199668</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.3671087977482</v>
+        <v>188.5552552485858</v>
       </c>
       <c r="AD11" t="n">
-        <v>131996.6717275517</v>
+        <v>152348.0847075837</v>
       </c>
       <c r="AE11" t="n">
-        <v>180603.6695397269</v>
+        <v>208449.3706199668</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.384898330965587e-06</v>
+        <v>9.264616381589867e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.856944444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>163367.1087977482</v>
+        <v>188555.2552485858</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.8198973136686</v>
+        <v>150.1713102937005</v>
       </c>
       <c r="AB12" t="n">
-        <v>177.625310754144</v>
+        <v>205.4710118343839</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.6730003945075</v>
+        <v>185.8611468453451</v>
       </c>
       <c r="AD12" t="n">
-        <v>129819.8973136686</v>
+        <v>150171.3102937005</v>
       </c>
       <c r="AE12" t="n">
-        <v>177625.310754144</v>
+        <v>205471.0118343839</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.406883612305733e-06</v>
+        <v>9.302441644972556e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.841666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>160673.0003945075</v>
+        <v>185861.1468453451</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.0693130491476</v>
+        <v>147.4207260291795</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.8618400162147</v>
+        <v>201.7075410964546</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.2687100217407</v>
+        <v>182.4568564725782</v>
       </c>
       <c r="AD13" t="n">
-        <v>127069.3130491476</v>
+        <v>147420.7260291795</v>
       </c>
       <c r="AE13" t="n">
-        <v>173861.8400162147</v>
+        <v>201707.5410964546</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.454443608674211e-06</v>
+        <v>9.384267724943271e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.808333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>157268.7100217407</v>
+        <v>182456.8564725782</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.3123187337999</v>
+        <v>147.6637317138318</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.19433111461</v>
+        <v>202.0400321948499</v>
       </c>
       <c r="AC14" t="n">
-        <v>157.5694686363594</v>
+        <v>182.757615087197</v>
       </c>
       <c r="AD14" t="n">
-        <v>127312.3187337999</v>
+        <v>147663.7317138318</v>
       </c>
       <c r="AE14" t="n">
-        <v>174194.33111461</v>
+        <v>202040.0321948499</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.451153294460039e-06</v>
+        <v>9.378606801171712e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.811111111111112</v>
       </c>
       <c r="AH14" t="n">
-        <v>157569.4686363594</v>
+        <v>182757.615087197</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.4799602226995</v>
+        <v>121.6296598425213</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.9540909071718</v>
+        <v>166.4190665183498</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.3107531083566</v>
+        <v>150.5362643805115</v>
       </c>
       <c r="AD2" t="n">
-        <v>104479.9602226995</v>
+        <v>121629.6598425213</v>
       </c>
       <c r="AE2" t="n">
-        <v>142954.0909071718</v>
+        <v>166419.0665183498</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.697500377714275e-06</v>
+        <v>1.142155325290227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.362500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>129310.7531083566</v>
+        <v>150536.2643805114</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.39692615602718</v>
+        <v>111.5466257758489</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.1580388650893</v>
+        <v>152.6230144762673</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.8313769102854</v>
+        <v>138.0568881824402</v>
       </c>
       <c r="AD3" t="n">
-        <v>94396.92615602718</v>
+        <v>111546.6257758489</v>
       </c>
       <c r="AE3" t="n">
-        <v>129158.0388650893</v>
+        <v>152623.0144762673</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.123846378584953e-06</v>
+        <v>1.22762321875722e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.059722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>116831.3769102854</v>
+        <v>138056.8881824402</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.5656122856739</v>
+        <v>357.737278408362</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.8755248521838</v>
+        <v>489.4719265731896</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.276176515432</v>
+        <v>442.7574128792073</v>
       </c>
       <c r="AD2" t="n">
-        <v>318565.6122856739</v>
+        <v>357737.2784083621</v>
       </c>
       <c r="AE2" t="n">
-        <v>435875.5248521838</v>
+        <v>489471.9265731896</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.162192517504017e-06</v>
+        <v>5.600477921222388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.829166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>394276.176515432</v>
+        <v>442757.4128792073</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.2395623864925</v>
+        <v>204.5969767648653</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.7705002809542</v>
+        <v>279.9386097911384</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.88714025422</v>
+        <v>253.2216617690609</v>
       </c>
       <c r="AD3" t="n">
-        <v>175239.5623864925</v>
+        <v>204596.9767648653</v>
       </c>
       <c r="AE3" t="n">
-        <v>239770.5002809542</v>
+        <v>279938.6097911384</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.58880983314051e-06</v>
+        <v>8.127123194724645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.705555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>216887.14025422</v>
+        <v>253221.6617690609</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.512185015576</v>
+        <v>175.055437158185</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.7786322516135</v>
+        <v>239.5185720205522</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.4713382262664</v>
+        <v>216.6592556734072</v>
       </c>
       <c r="AD4" t="n">
-        <v>155512.185015576</v>
+        <v>175055.437158185</v>
       </c>
       <c r="AE4" t="n">
-        <v>212778.6322516135</v>
+        <v>239518.5720205522</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.020760013286361e-06</v>
+        <v>8.892139060641732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.301388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>192471.3382262664</v>
+        <v>216659.2556734072</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.3021828647159</v>
+        <v>162.8454350073249</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.0723686415375</v>
+        <v>222.8123084104762</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.3594969677424</v>
+        <v>201.5474144148833</v>
       </c>
       <c r="AD5" t="n">
-        <v>143302.1828647159</v>
+        <v>162845.4350073249</v>
       </c>
       <c r="AE5" t="n">
-        <v>196072.3686415375</v>
+        <v>222812.3084104762</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.315723833205971e-06</v>
+        <v>9.414541903566394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>177359.4969677424</v>
+        <v>201547.4144148833</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.0341775151135</v>
+        <v>157.3062510389147</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.1820101453646</v>
+        <v>215.2333525333513</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.4628849666353</v>
+        <v>194.6917834495374</v>
       </c>
       <c r="AD6" t="n">
-        <v>128034.1775151135</v>
+        <v>157306.2510389147</v>
       </c>
       <c r="AE6" t="n">
-        <v>175182.0101453646</v>
+        <v>215233.3525333513</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.434673396853047e-06</v>
+        <v>9.625210419558681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.973611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>158462.8849666353</v>
+        <v>194691.7834495374</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.0247243311979</v>
+        <v>144.6532278198275</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.0643435314292</v>
+        <v>197.9209279530171</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.7382026751512</v>
+        <v>179.0316323730043</v>
       </c>
       <c r="AD7" t="n">
-        <v>125024.7243311979</v>
+        <v>144653.2278198275</v>
       </c>
       <c r="AE7" t="n">
-        <v>171064.3435314292</v>
+        <v>197920.9279530171</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.475411678781849e-06</v>
+        <v>9.697360943990026e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.944444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>154738.2026751512</v>
+        <v>179031.6323730043</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.6916771201854</v>
+        <v>138.320180608815</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.3991889430019</v>
+        <v>189.2557733645899</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.9000382790198</v>
+        <v>171.193467976873</v>
       </c>
       <c r="AD8" t="n">
-        <v>118691.6771201854</v>
+        <v>138320.180608815</v>
       </c>
       <c r="AE8" t="n">
-        <v>162399.1889430019</v>
+        <v>189255.7733645899</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.612864507885136e-06</v>
+        <v>9.940800118025557e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.847222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>146900.0382790198</v>
+        <v>171193.467976873</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.550893534695</v>
+        <v>135.1793970233246</v>
       </c>
       <c r="AB9" t="n">
-        <v>158.1018302797435</v>
+        <v>184.9584147013315</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.0128134952006</v>
+        <v>167.3062431930537</v>
       </c>
       <c r="AD9" t="n">
-        <v>115550.893534695</v>
+        <v>135179.3970233246</v>
       </c>
       <c r="AE9" t="n">
-        <v>158101.8302797435</v>
+        <v>184958.4147013315</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.663087656980569e-06</v>
+        <v>1.002974904700008e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.813888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>143012.8134952007</v>
+        <v>167306.2431930538</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.0072410815095</v>
+        <v>135.6357445701391</v>
       </c>
       <c r="AB10" t="n">
-        <v>158.7262251259276</v>
+        <v>185.5828095475156</v>
       </c>
       <c r="AC10" t="n">
-        <v>143.5776169736089</v>
+        <v>167.871046671462</v>
       </c>
       <c r="AD10" t="n">
-        <v>116007.2410815095</v>
+        <v>135635.7445701391</v>
       </c>
       <c r="AE10" t="n">
-        <v>158726.2251259277</v>
+        <v>185582.8095475156</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.656712582327587e-06</v>
+        <v>1.001845831607762e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>143577.6169736089</v>
+        <v>167871.046671462</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.8789727539041</v>
+        <v>438.8877395292068</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.7638078202154</v>
+        <v>600.5055675844028</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.6768759861685</v>
+        <v>543.1941590290041</v>
       </c>
       <c r="AD2" t="n">
-        <v>398878.9727539041</v>
+        <v>438887.7395292068</v>
       </c>
       <c r="AE2" t="n">
-        <v>545763.8078202155</v>
+        <v>600505.5675844027</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795906188485495e-06</v>
+        <v>4.875816256414865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.568055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>493676.8759861685</v>
+        <v>543194.1590290042</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.912425506814</v>
+        <v>225.8336597337189</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.0560236245175</v>
+        <v>308.9955763254392</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.473132948864</v>
+        <v>279.5054721990458</v>
       </c>
       <c r="AD3" t="n">
-        <v>195912.425506814</v>
+        <v>225833.6597337189</v>
       </c>
       <c r="AE3" t="n">
-        <v>268056.0236245175</v>
+        <v>308995.5763254392</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.299894085866098e-06</v>
+        <v>7.498639822420073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.920833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>242473.132948864</v>
+        <v>279505.4721990458</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.0761513859069</v>
+        <v>192.9952834275374</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.8104259069972</v>
+        <v>264.0646611364275</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.2095712240221</v>
+        <v>238.8627004947236</v>
       </c>
       <c r="AD4" t="n">
-        <v>173076.1513859069</v>
+        <v>192995.2834275374</v>
       </c>
       <c r="AE4" t="n">
-        <v>236810.4259069972</v>
+        <v>264064.6611364275</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727994368649677e-06</v>
+        <v>8.245209334218557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>214209.5712240221</v>
+        <v>238862.7004947236</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.4265900667586</v>
+        <v>177.345722108389</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.3980057002304</v>
+        <v>242.6522409296607</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.8407223492618</v>
+        <v>219.4938516199633</v>
       </c>
       <c r="AD5" t="n">
-        <v>157426.5900667586</v>
+        <v>177345.722108389</v>
       </c>
       <c r="AE5" t="n">
-        <v>215398.0057002304</v>
+        <v>242652.2409296607</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.060571919296137e-06</v>
+        <v>8.825195542138874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.180555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>194840.7223492618</v>
+        <v>219493.8516199633</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.1577562930466</v>
+        <v>172.0768883346771</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.1889548865003</v>
+        <v>235.4431901159306</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.3196932272255</v>
+        <v>212.972822497927</v>
       </c>
       <c r="AD6" t="n">
-        <v>152157.7562930466</v>
+        <v>172076.8883346771</v>
       </c>
       <c r="AE6" t="n">
-        <v>208188.9548865003</v>
+        <v>235443.1901159306</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.17483356060848e-06</v>
+        <v>9.024457867351992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.088888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>188319.6932272254</v>
+        <v>212972.822497927</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.1428255434243</v>
+        <v>164.9787189157576</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.908375989112</v>
+        <v>225.7311615678361</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.2609801052988</v>
+        <v>204.1876963235418</v>
       </c>
       <c r="AD7" t="n">
-        <v>135142.8255434243</v>
+        <v>164978.7189157576</v>
       </c>
       <c r="AE7" t="n">
-        <v>184908.375989112</v>
+        <v>225731.1615678361</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.329924695083101e-06</v>
+        <v>9.294923263441264e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.969444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>167260.9801052988</v>
+        <v>204187.6963235418</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.8650310773421</v>
+        <v>150.869414464993</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.0553088776488</v>
+        <v>206.4261887597283</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.9665215041205</v>
+        <v>186.7251630255342</v>
       </c>
       <c r="AD8" t="n">
-        <v>130865.031077342</v>
+        <v>150869.4144649931</v>
       </c>
       <c r="AE8" t="n">
-        <v>179055.3088776488</v>
+        <v>206426.1887597283</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.410669588277156e-06</v>
+        <v>9.435735306591867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.911111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>161966.5215041205</v>
+        <v>186725.1630255342</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.2429668338526</v>
+        <v>146.2473502215036</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.7311966686266</v>
+        <v>200.1020765507062</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.2459736883781</v>
+        <v>181.0046152097919</v>
       </c>
       <c r="AD9" t="n">
-        <v>126242.9668338526</v>
+        <v>146247.3502215036</v>
       </c>
       <c r="AE9" t="n">
-        <v>172731.1966686266</v>
+        <v>200102.0765507062</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.500860110486366e-06</v>
+        <v>9.593019701960089e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.847222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>156245.9736883781</v>
+        <v>181004.6152097919</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.778229530138</v>
+        <v>143.7826129177891</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.3588343531504</v>
+        <v>196.7297142352299</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.1954648991497</v>
+        <v>177.9541064205634</v>
       </c>
       <c r="AD10" t="n">
-        <v>123778.2295301381</v>
+        <v>143782.6129177891</v>
       </c>
       <c r="AE10" t="n">
-        <v>169358.8343531504</v>
+        <v>196729.7142352299</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.51274332118285e-06</v>
+        <v>9.613742983782253e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.838888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>153195.4648991497</v>
+        <v>177954.1064205634</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.71849393521</v>
+        <v>141.722877322861</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.54061324305</v>
+        <v>193.9114931251295</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.6462108563982</v>
+        <v>175.4048523778119</v>
       </c>
       <c r="AD11" t="n">
-        <v>121718.49393521</v>
+        <v>141722.877322861</v>
       </c>
       <c r="AE11" t="n">
-        <v>166540.6132430501</v>
+        <v>193911.4931251295</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.542451347924058e-06</v>
+        <v>9.665551188337664e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>150646.2108563982</v>
+        <v>175404.8523778119</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.0531369670832</v>
+        <v>142.0575203547342</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.9984866026673</v>
+        <v>194.3693664847468</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.0603854252031</v>
+        <v>175.8190269466168</v>
       </c>
       <c r="AD12" t="n">
-        <v>122053.1369670832</v>
+        <v>142057.5203547342</v>
       </c>
       <c r="AE12" t="n">
-        <v>166998.4866026673</v>
+        <v>194369.3664847469</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.541232557083394e-06</v>
+        <v>9.663425723535391e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>151060.3854252031</v>
+        <v>175819.0269466168</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.9624697243626</v>
+        <v>681.4790041430172</v>
       </c>
       <c r="AB2" t="n">
-        <v>861.9424430595782</v>
+        <v>932.4296382002774</v>
       </c>
       <c r="AC2" t="n">
-        <v>779.6798660377881</v>
+        <v>843.4398622036587</v>
       </c>
       <c r="AD2" t="n">
-        <v>629962.4697243626</v>
+        <v>681479.0041430171</v>
       </c>
       <c r="AE2" t="n">
-        <v>861942.4430595782</v>
+        <v>932429.6382002773</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153115366216982e-06</v>
+        <v>3.660153421879335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.486111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>779679.8660377881</v>
+        <v>843439.8622036587</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.4087943190955</v>
+        <v>283.2504780900545</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.3568478773264</v>
+        <v>387.5558002519745</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.3964750273977</v>
+        <v>350.5680186139072</v>
       </c>
       <c r="AD3" t="n">
-        <v>252408.7943190955</v>
+        <v>283250.4780900545</v>
       </c>
       <c r="AE3" t="n">
-        <v>345356.8478773264</v>
+        <v>387555.8002519745</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792435821249554e-06</v>
+        <v>6.446889547211313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.386111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>312396.4750273977</v>
+        <v>350568.0186139072</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.9085633457302</v>
+        <v>227.8354984627063</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.4189833622218</v>
+        <v>311.73458038933</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.7060137221282</v>
+        <v>281.9830695592962</v>
       </c>
       <c r="AD4" t="n">
-        <v>196908.5633457302</v>
+        <v>227835.4984627063</v>
       </c>
       <c r="AE4" t="n">
-        <v>269418.9833622217</v>
+        <v>311734.58038933</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.415342302010046e-06</v>
+        <v>7.505789280518297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>243706.0137221282</v>
+        <v>281983.0695592961</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.1717749214078</v>
+        <v>204.7613742230857</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.9919475326247</v>
+        <v>280.1635456461794</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.942189733104</v>
+        <v>253.4251300617962</v>
       </c>
       <c r="AD5" t="n">
-        <v>184171.7749214078</v>
+        <v>204761.3742230856</v>
       </c>
       <c r="AE5" t="n">
-        <v>251991.9475326248</v>
+        <v>280163.5456461794</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.656799441152806e-06</v>
+        <v>7.916250414156179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.38611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>227942.189733104</v>
+        <v>253425.1300617962</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.6259194866884</v>
+        <v>194.2155187883662</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.5626428765428</v>
+        <v>265.7342409900975</v>
       </c>
       <c r="AC6" t="n">
-        <v>214.8899976617377</v>
+        <v>240.3729379904299</v>
       </c>
       <c r="AD6" t="n">
-        <v>173625.9194866884</v>
+        <v>194215.5187883662</v>
       </c>
       <c r="AE6" t="n">
-        <v>237562.6428765428</v>
+        <v>265734.2409900975</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.858699960058414e-06</v>
+        <v>8.259467915060449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.204166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>214889.9976617377</v>
+        <v>240372.9379904299</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.6811879496129</v>
+        <v>190.2707872512908</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.1652871582458</v>
+        <v>260.3368852718005</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.0077579979569</v>
+        <v>235.4906983266492</v>
       </c>
       <c r="AD7" t="n">
-        <v>169681.1879496129</v>
+        <v>190270.7872512908</v>
       </c>
       <c r="AE7" t="n">
-        <v>232165.2871582458</v>
+        <v>260336.8852718005</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.941489466354013e-06</v>
+        <v>8.40020458877429e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.133333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>210007.7579979569</v>
+        <v>235490.6983266492</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.951975653261</v>
+        <v>183.5415749549389</v>
       </c>
       <c r="AB8" t="n">
-        <v>222.9580820224874</v>
+        <v>251.1296801360421</v>
       </c>
       <c r="AC8" t="n">
-        <v>201.6792755979587</v>
+        <v>227.162215926651</v>
       </c>
       <c r="AD8" t="n">
-        <v>162951.975653261</v>
+        <v>183541.5749549388</v>
       </c>
       <c r="AE8" t="n">
-        <v>222958.0820224874</v>
+        <v>251129.6801360421</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.073246833389283e-06</v>
+        <v>8.624183380333087e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.026388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>201679.2755979587</v>
+        <v>227162.215926651</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.1368539229566</v>
+        <v>180.9784481853609</v>
       </c>
       <c r="AB9" t="n">
-        <v>205.4238671078243</v>
+        <v>247.6226970127348</v>
       </c>
       <c r="AC9" t="n">
-        <v>185.8185015453203</v>
+        <v>223.9899343505494</v>
       </c>
       <c r="AD9" t="n">
-        <v>150136.8539229566</v>
+        <v>180978.4481853609</v>
       </c>
       <c r="AE9" t="n">
-        <v>205423.8671078243</v>
+        <v>247622.6970127348</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.110303592867952e-06</v>
+        <v>8.687177415458997e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.997222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>185818.5015453203</v>
+        <v>223989.9343505494</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>145.9062589041912</v>
+        <v>166.5811095518897</v>
       </c>
       <c r="AB10" t="n">
-        <v>199.6353803624726</v>
+        <v>227.9236231286765</v>
       </c>
       <c r="AC10" t="n">
-        <v>180.582459850751</v>
+        <v>206.1709124301555</v>
       </c>
       <c r="AD10" t="n">
-        <v>145906.2589041912</v>
+        <v>166581.1095518896</v>
       </c>
       <c r="AE10" t="n">
-        <v>199635.3803624726</v>
+        <v>227923.6231286765</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.188387478912292e-06</v>
+        <v>8.819914846617169e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.936111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>180582.459850751</v>
+        <v>206170.9124301554</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.0303547208633</v>
+        <v>164.7052053685618</v>
       </c>
       <c r="AB11" t="n">
-        <v>197.068685499793</v>
+        <v>225.3569282659969</v>
       </c>
       <c r="AC11" t="n">
-        <v>178.2607267433858</v>
+        <v>203.8491793227903</v>
       </c>
       <c r="AD11" t="n">
-        <v>144030.3547208633</v>
+        <v>164705.2053685618</v>
       </c>
       <c r="AE11" t="n">
-        <v>197068.685499793</v>
+        <v>225356.9282659969</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.210886225738626e-06</v>
+        <v>8.858161225086472e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.919444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>178260.7267433858</v>
+        <v>203849.1793227903</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>140.0831119784145</v>
+        <v>160.7579626261129</v>
       </c>
       <c r="AB12" t="n">
-        <v>191.6678938395175</v>
+        <v>219.9561366057214</v>
       </c>
       <c r="AC12" t="n">
-        <v>173.3753790591066</v>
+        <v>198.9638316385111</v>
       </c>
       <c r="AD12" t="n">
-        <v>140083.1119784144</v>
+        <v>160757.9626261129</v>
       </c>
       <c r="AE12" t="n">
-        <v>191667.8938395175</v>
+        <v>219956.1366057214</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.266471364956631e-06</v>
+        <v>8.952652277775338e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.877777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>173375.3790591066</v>
+        <v>198963.8316385111</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>138.7067508176711</v>
+        <v>159.3816014653695</v>
       </c>
       <c r="AB13" t="n">
-        <v>189.7846957786204</v>
+        <v>218.0729385448244</v>
       </c>
       <c r="AC13" t="n">
-        <v>171.6719107780559</v>
+        <v>197.2603633574604</v>
       </c>
       <c r="AD13" t="n">
-        <v>138706.7508176711</v>
+        <v>159381.6014653695</v>
       </c>
       <c r="AE13" t="n">
-        <v>189784.6957786204</v>
+        <v>218072.9385448243</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.281911681406076e-06</v>
+        <v>8.978899792411135e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>171671.9107780559</v>
+        <v>197260.3633574604</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.3911439601559</v>
+        <v>156.0659946078544</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.2481362019195</v>
+        <v>213.5363789681234</v>
       </c>
       <c r="AC14" t="n">
-        <v>167.5683140802525</v>
+        <v>193.1567666596569</v>
       </c>
       <c r="AD14" t="n">
-        <v>135391.143960156</v>
+        <v>156065.9946078544</v>
       </c>
       <c r="AE14" t="n">
-        <v>185248.1362019195</v>
+        <v>213536.3789681234</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.330732491512895e-06</v>
+        <v>9.061891933926224e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.831944444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>167568.3140802525</v>
+        <v>193156.7666596569</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>133.9320599378505</v>
+        <v>154.6069105855489</v>
       </c>
       <c r="AB15" t="n">
-        <v>183.2517530723581</v>
+        <v>211.539995838562</v>
       </c>
       <c r="AC15" t="n">
-        <v>165.7624629546345</v>
+        <v>191.3509155340389</v>
       </c>
       <c r="AD15" t="n">
-        <v>133932.0599378505</v>
+        <v>154606.9105855489</v>
       </c>
       <c r="AE15" t="n">
-        <v>183251.7530723581</v>
+        <v>211539.995838562</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.335438111764155e-06</v>
+        <v>9.069891176481894e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.827777777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>165762.4629546345</v>
+        <v>191350.9155340389</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>133.15101980969</v>
+        <v>153.8258704573884</v>
       </c>
       <c r="AB16" t="n">
-        <v>182.1830995119508</v>
+        <v>210.4713422781547</v>
       </c>
       <c r="AC16" t="n">
-        <v>164.7958001901674</v>
+        <v>190.3842527695718</v>
       </c>
       <c r="AD16" t="n">
-        <v>133151.01980969</v>
+        <v>153825.8704573884</v>
       </c>
       <c r="AE16" t="n">
-        <v>182183.0995119508</v>
+        <v>210471.3422781547</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.352937137073526e-06</v>
+        <v>9.099638359735798e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.815277777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>164795.8001901674</v>
+        <v>190384.2527695718</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>133.5401608673058</v>
+        <v>154.2150115150043</v>
       </c>
       <c r="AB17" t="n">
-        <v>182.7155394746724</v>
+        <v>211.0037822408763</v>
       </c>
       <c r="AC17" t="n">
-        <v>165.2774248301312</v>
+        <v>190.8658774095357</v>
       </c>
       <c r="AD17" t="n">
-        <v>133540.1608673058</v>
+        <v>154215.0115150043</v>
       </c>
       <c r="AE17" t="n">
-        <v>182715.5394746724</v>
+        <v>211003.7822408763</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.354554694034897e-06</v>
+        <v>9.102388099364308e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.813888888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>165277.4248301312</v>
+        <v>190865.8774095357</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.4618937445574</v>
+        <v>292.2010814819988</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.4801861397381</v>
+        <v>399.8024106855855</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.0764631116795</v>
+        <v>361.6458297359601</v>
       </c>
       <c r="AD2" t="n">
-        <v>263461.8937445574</v>
+        <v>292201.0814819988</v>
       </c>
       <c r="AE2" t="n">
-        <v>360480.1861397381</v>
+        <v>399802.4106855855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.558760326036831e-06</v>
+        <v>6.417287012683215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>326076.4631116795</v>
+        <v>361645.8297359601</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4689043084029</v>
+        <v>171.5999456846901</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.6146813279923</v>
+        <v>234.7906161409942</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.7047889346524</v>
+        <v>212.3825292672649</v>
       </c>
       <c r="AD3" t="n">
-        <v>152468.9043084029</v>
+        <v>171599.9456846901</v>
       </c>
       <c r="AE3" t="n">
-        <v>208614.6813279924</v>
+        <v>234790.6161409942</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.977491867726435e-06</v>
+        <v>8.975595710899972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.438888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>188704.7889346524</v>
+        <v>212382.5292672649</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.1996136148424</v>
+        <v>159.3306549911295</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.8272965181676</v>
+        <v>218.0032313311694</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.5195685698294</v>
+        <v>197.1973089024419</v>
       </c>
       <c r="AD4" t="n">
-        <v>140199.6136148424</v>
+        <v>159330.6549911295</v>
       </c>
       <c r="AE4" t="n">
-        <v>191827.2965181676</v>
+        <v>218003.2313311694</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.297414398600823e-06</v>
+        <v>9.552491740515795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>173519.5685698294</v>
+        <v>197197.3089024419</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.2316701696622</v>
+        <v>152.3627115459494</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.2934488925076</v>
+        <v>208.4693837055094</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.8956179807202</v>
+        <v>188.5733583133327</v>
       </c>
       <c r="AD5" t="n">
-        <v>133231.6701696622</v>
+        <v>152362.7115459494</v>
       </c>
       <c r="AE5" t="n">
-        <v>182293.4488925076</v>
+        <v>208469.3837055094</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.467318557215367e-06</v>
+        <v>9.858869144608136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164895.6179807202</v>
+        <v>188573.3583133327</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.6244281098287</v>
+        <v>133.8407208321364</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.8341994126722</v>
+        <v>183.1267788783232</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.8661635389511</v>
+        <v>165.6494161222758</v>
       </c>
       <c r="AD6" t="n">
-        <v>114624.4281098287</v>
+        <v>133840.7208321364</v>
       </c>
       <c r="AE6" t="n">
-        <v>156834.1994126722</v>
+        <v>183126.7788783232</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.692266572459715e-06</v>
+        <v>1.026450364777908e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.881944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>141866.1635389511</v>
+        <v>165649.4161222758</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.4738990096193</v>
+        <v>129.690191731927</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.1552623893477</v>
+        <v>177.4478418549988</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.7292162946928</v>
+        <v>160.5124688780175</v>
       </c>
       <c r="AD7" t="n">
-        <v>110473.8990096193</v>
+        <v>129690.191731927</v>
       </c>
       <c r="AE7" t="n">
-        <v>151155.2623893477</v>
+        <v>177447.8418549988</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.756537433958101e-06</v>
+        <v>1.038039922011364e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.838888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>136729.2162946928</v>
+        <v>160512.4688780175</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.4831018855723</v>
+        <v>128.69939460788</v>
       </c>
       <c r="AB8" t="n">
-        <v>149.7996100533432</v>
+        <v>176.0921895189942</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.5029455149661</v>
+        <v>159.2861980982908</v>
       </c>
       <c r="AD8" t="n">
-        <v>109483.1018855723</v>
+        <v>128699.39460788</v>
       </c>
       <c r="AE8" t="n">
-        <v>149799.6100533432</v>
+        <v>176092.1895189942</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.785013880018029e-06</v>
+        <v>1.043174899102425e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>135502.9455149661</v>
+        <v>159286.1980982908</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.0753565960575</v>
+        <v>213.6599258938937</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.5965119599757</v>
+        <v>292.3389366185659</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.2981781870385</v>
+        <v>264.4385188080506</v>
       </c>
       <c r="AD2" t="n">
-        <v>186075.3565960575</v>
+        <v>213659.9258938937</v>
       </c>
       <c r="AE2" t="n">
-        <v>254596.5119599757</v>
+        <v>292338.9366185659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.287880281652392e-06</v>
+        <v>7.999814015770392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.368055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>230298.1781870385</v>
+        <v>264438.5188080505</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1626753432856</v>
+        <v>151.5808649962173</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.1990471272222</v>
+        <v>207.399626763531</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8102257874199</v>
+        <v>187.6056974724831</v>
       </c>
       <c r="AD3" t="n">
-        <v>133162.6753432856</v>
+        <v>151580.8649962172</v>
       </c>
       <c r="AE3" t="n">
-        <v>182199.0471272222</v>
+        <v>207399.626763531</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.278359912316599e-06</v>
+        <v>9.847732406968833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.359722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>164810.2257874199</v>
+        <v>187605.6974724832</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.4165705237931</v>
+        <v>123.9200115227454</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.2356024414577</v>
+        <v>169.5528267304157</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.4699589804234</v>
+        <v>153.3709429161989</v>
       </c>
       <c r="AD4" t="n">
-        <v>105416.5705237931</v>
+        <v>123920.0115227454</v>
       </c>
       <c r="AE4" t="n">
-        <v>144235.6024414577</v>
+        <v>169552.8267304157</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.842785815285026e-06</v>
+        <v>1.090077072726696e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.938888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>130469.9589804234</v>
+        <v>153370.9429161989</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.0854417738472</v>
+        <v>118.5888827727994</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.9413168929839</v>
+        <v>162.2585411819419</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.8718298070996</v>
+        <v>146.772813742875</v>
       </c>
       <c r="AD5" t="n">
-        <v>100085.4417738472</v>
+        <v>118588.8827727994</v>
       </c>
       <c r="AE5" t="n">
-        <v>136941.3168929839</v>
+        <v>162258.5411819419</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.966740769900523e-06</v>
+        <v>1.113203105127841e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.856944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>123871.8298070996</v>
+        <v>146772.813742875</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.9994923329079</v>
+        <v>119.5029333318602</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.1919611929549</v>
+        <v>163.509185481913</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.0031143703721</v>
+        <v>147.9040983061475</v>
       </c>
       <c r="AD6" t="n">
-        <v>100999.4923329079</v>
+        <v>119502.9333318602</v>
       </c>
       <c r="AE6" t="n">
-        <v>138191.9611929549</v>
+        <v>163509.185481913</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.940392056285732e-06</v>
+        <v>1.108287277384817e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>125003.1143703721</v>
+        <v>147904.0983061475</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4924070421067</v>
+        <v>167.3075341270129</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.2279094024849</v>
+        <v>228.9175492799501</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8819475227314</v>
+        <v>207.0699796645359</v>
       </c>
       <c r="AD2" t="n">
-        <v>140492.4070421068</v>
+        <v>167307.5341270129</v>
       </c>
       <c r="AE2" t="n">
-        <v>192227.9094024849</v>
+        <v>228917.5492799501</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.868290736717393e-06</v>
+        <v>9.361903620491669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.890277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>173881.9475227314</v>
+        <v>207069.9796645359</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3958757968106</v>
+        <v>127.2442697437752</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.6802634705561</v>
+        <v>174.1012234843487</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.3949892025362</v>
+        <v>157.4852470676529</v>
       </c>
       <c r="AD3" t="n">
-        <v>109395.8757968106</v>
+        <v>127244.2697437752</v>
       </c>
       <c r="AE3" t="n">
-        <v>149680.2634705561</v>
+        <v>174101.2234843487</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.839068948697765e-06</v>
+        <v>1.122874612208836e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.077777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>135394.9892025362</v>
+        <v>157485.2470676529</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.03516720467564</v>
+        <v>111.9688124976608</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.6630643081718</v>
+        <v>153.2006689746136</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.3836420303789</v>
+        <v>138.5794121462078</v>
       </c>
       <c r="AD4" t="n">
-        <v>94035.16720467564</v>
+        <v>111968.8124976608</v>
       </c>
       <c r="AE4" t="n">
-        <v>128663.0643081718</v>
+        <v>153200.6689746137</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.042378671355141e-06</v>
+        <v>1.16197182582165e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.940277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>116383.6420303789</v>
+        <v>138579.4121462078</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.57947769525293</v>
+        <v>112.5131229882381</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.4078139346634</v>
+        <v>153.9454186011052</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.0573137977809</v>
+        <v>139.2530839136099</v>
       </c>
       <c r="AD5" t="n">
-        <v>94579.47769525294</v>
+        <v>112513.1229882381</v>
       </c>
       <c r="AE5" t="n">
-        <v>129407.8139346633</v>
+        <v>153945.4186011052</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.042550096079136e-06</v>
+        <v>1.162004791431779e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.940277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>117057.313797781</v>
+        <v>139253.0839136099</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.24926958987746</v>
+        <v>106.9681517440619</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.4830321695925</v>
+        <v>146.3585443179607</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.6979848888832</v>
+        <v>132.3902902638014</v>
       </c>
       <c r="AD2" t="n">
-        <v>90249.26958987745</v>
+        <v>106968.1517440619</v>
       </c>
       <c r="AE2" t="n">
-        <v>123483.0321695925</v>
+        <v>146358.5443179607</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01098669690534e-06</v>
+        <v>1.239825708175743e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.251388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>111697.9848888832</v>
+        <v>132390.2902638014</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.01572570413433</v>
+        <v>106.7346078583188</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.1634871218899</v>
+        <v>146.0389992702581</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.4089367720489</v>
+        <v>132.1012421469671</v>
       </c>
       <c r="AD3" t="n">
-        <v>90015.72570413433</v>
+        <v>106734.6078583188</v>
       </c>
       <c r="AE3" t="n">
-        <v>123163.4871218899</v>
+        <v>146038.9992702581</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.061768219046322e-06</v>
+        <v>1.250299901486318e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.215277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>111408.9367720489</v>
+        <v>132101.2421469671</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.8184699129955</v>
+        <v>389.5492373321086</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.3195046055183</v>
+        <v>532.9984522172374</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.3332220607313</v>
+        <v>482.1298280056495</v>
       </c>
       <c r="AD2" t="n">
-        <v>359818.4699129955</v>
+        <v>389549.2373321087</v>
       </c>
       <c r="AE2" t="n">
-        <v>492319.5046055183</v>
+        <v>532998.4522172374</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.983995768532744e-06</v>
+        <v>5.242762853316184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.162500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>445333.2220607313</v>
+        <v>482129.8280056495</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.8527434195989</v>
+        <v>214.498080475589</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.9236786740591</v>
+        <v>293.4857366940113</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.784997762093</v>
+        <v>265.4758698938398</v>
       </c>
       <c r="AD3" t="n">
-        <v>184852.7434195988</v>
+        <v>214498.080475589</v>
       </c>
       <c r="AE3" t="n">
-        <v>252923.6786740591</v>
+        <v>293485.7366940113</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.450374341941555e-06</v>
+        <v>7.819132161422367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.801388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>228784.997762093</v>
+        <v>265475.8698938398</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.7402728724305</v>
+        <v>183.4754734667844</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.0366650549734</v>
+        <v>251.0392371637574</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.6549201796254</v>
+        <v>227.0804047047036</v>
       </c>
       <c r="AD4" t="n">
-        <v>163740.2728724305</v>
+        <v>183475.4734667844</v>
       </c>
       <c r="AE4" t="n">
-        <v>224036.6650549734</v>
+        <v>251039.2371637574</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.881978948280664e-06</v>
+        <v>8.577444428918469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.377777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>202654.9201796254</v>
+        <v>227080.4047047036</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.4323434734899</v>
+        <v>170.1675440678439</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.8281689469428</v>
+        <v>232.8307410557267</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.1842173843546</v>
+        <v>210.6097019094328</v>
       </c>
       <c r="AD5" t="n">
-        <v>150432.3434734899</v>
+        <v>170167.5440678439</v>
       </c>
       <c r="AE5" t="n">
-        <v>205828.1689469428</v>
+        <v>232830.7410557267</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.181563322092517e-06</v>
+        <v>9.103802355768705e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>186184.2173843546</v>
+        <v>210609.7019094328</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.9354181542734</v>
+        <v>164.6706187486273</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.3070332179647</v>
+        <v>225.3096053267486</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.3808882933675</v>
+        <v>203.8063728184457</v>
       </c>
       <c r="AD6" t="n">
-        <v>144935.4181542734</v>
+        <v>164670.6187486273</v>
       </c>
       <c r="AE6" t="n">
-        <v>198307.0332179647</v>
+        <v>225309.6053267486</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.301581715299114e-06</v>
+        <v>9.314669938174037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.030555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>179380.8882933675</v>
+        <v>203806.3728184457</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.0207824384703</v>
+        <v>147.8412343788448</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.1636824105524</v>
+        <v>202.2828991719855</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.4463064051104</v>
+        <v>182.9773031809008</v>
       </c>
       <c r="AD7" t="n">
-        <v>128020.7824384703</v>
+        <v>147841.2343788448</v>
       </c>
       <c r="AE7" t="n">
-        <v>175163.6824105523</v>
+        <v>202282.8991719855</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.459759802756014e-06</v>
+        <v>9.592582598062091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.913888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>158446.3064051104</v>
+        <v>182977.3031809008</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.5152920752043</v>
+        <v>144.3357440155788</v>
       </c>
       <c r="AB8" t="n">
-        <v>170.3673158442141</v>
+        <v>197.4865326056472</v>
       </c>
       <c r="AC8" t="n">
-        <v>154.1076983321192</v>
+        <v>178.6386951079096</v>
       </c>
       <c r="AD8" t="n">
-        <v>124515.2920752043</v>
+        <v>144335.7440155788</v>
       </c>
       <c r="AE8" t="n">
-        <v>170367.3158442141</v>
+        <v>197486.5326056472</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.518999650684911e-06</v>
+        <v>9.69666467399293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.872222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>154107.6983321192</v>
+        <v>178638.6951079096</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.6410376027186</v>
+        <v>141.4614895430931</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.4346340718032</v>
+        <v>193.5538508332364</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.5503461885124</v>
+        <v>175.0813429643028</v>
       </c>
       <c r="AD9" t="n">
-        <v>121641.0376027186</v>
+        <v>141461.4895430931</v>
       </c>
       <c r="AE9" t="n">
-        <v>166434.6340718032</v>
+        <v>193553.8508332364</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.550696816070243e-06</v>
+        <v>9.752355343192287e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>150550.3461885124</v>
+        <v>175081.3429643028</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.1364698542821</v>
+        <v>137.9569217946566</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.6395298677776</v>
+        <v>188.7587466292108</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.2128799997465</v>
+        <v>170.7438767755368</v>
       </c>
       <c r="AD10" t="n">
-        <v>118136.4698542821</v>
+        <v>137956.9217946566</v>
       </c>
       <c r="AE10" t="n">
-        <v>161639.5298677776</v>
+        <v>188758.7466292108</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.62147689411516e-06</v>
+        <v>9.876713148200559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.801388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>146212.8799997465</v>
+        <v>170743.8767755369</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.144035673852</v>
+        <v>138.9644876142266</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.0181258727792</v>
+        <v>190.1373426342124</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.4599047369028</v>
+        <v>171.9909015126932</v>
       </c>
       <c r="AD11" t="n">
-        <v>119144.035673852</v>
+        <v>138964.4876142266</v>
       </c>
       <c r="AE11" t="n">
-        <v>163018.1258727792</v>
+        <v>190137.3426342124</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.598396433883121e-06</v>
+        <v>9.836161690045686e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.816666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>147459.9047369029</v>
+        <v>171990.9015126932</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.2877956289756</v>
+        <v>606.4919886364819</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.7692595481569</v>
+        <v>829.8290953905923</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.2579477597332</v>
+        <v>750.6313711989637</v>
       </c>
       <c r="AD2" t="n">
-        <v>555287.7956289756</v>
+        <v>606491.9886364819</v>
       </c>
       <c r="AE2" t="n">
-        <v>759769.2595481569</v>
+        <v>829829.0953905924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304026157468697e-06</v>
+        <v>3.939627963077137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>687257.9477597332</v>
+        <v>750631.3711989637</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.9560098037311</v>
+        <v>259.4719128571162</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.9501546084479</v>
+        <v>355.0209182640074</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.7464907301389</v>
+        <v>321.1382200998781</v>
       </c>
       <c r="AD3" t="n">
-        <v>238956.0098037311</v>
+        <v>259471.9128571162</v>
       </c>
       <c r="AE3" t="n">
-        <v>326950.1546084479</v>
+        <v>355020.9182640074</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.924213674211115e-06</v>
+        <v>6.709968059128613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.247222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>295746.4907301389</v>
+        <v>321138.2200998781</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.10175438146</v>
+        <v>224.7901338441346</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.578583509637</v>
+        <v>307.5677781661975</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.2321362414379</v>
+        <v>278.2139410921944</v>
       </c>
       <c r="AD4" t="n">
-        <v>194101.75438146</v>
+        <v>224790.1338441346</v>
       </c>
       <c r="AE4" t="n">
-        <v>265578.583509637</v>
+        <v>307567.7781661975</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.443171879445715e-06</v>
+        <v>7.59732875613421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.634722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>240232.1362414379</v>
+        <v>278213.9410921944</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.7559420862405</v>
+        <v>198.1865042850508</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.213522000985</v>
+        <v>271.1675185341745</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.0015648136036</v>
+        <v>245.2876711513549</v>
       </c>
       <c r="AD5" t="n">
-        <v>177755.9420862405</v>
+        <v>198186.5042850508</v>
       </c>
       <c r="AE5" t="n">
-        <v>243213.522000985</v>
+        <v>271167.5185341745</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.746391745075644e-06</v>
+        <v>8.115800934813195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.338888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>220001.5648136036</v>
+        <v>245287.6711513549</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.4565325891667</v>
+        <v>185.887094787977</v>
       </c>
       <c r="AB6" t="n">
-        <v>226.3849273154457</v>
+        <v>254.3389238486352</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.7790675857657</v>
+        <v>230.0651739235171</v>
       </c>
       <c r="AD6" t="n">
-        <v>165456.5325891667</v>
+        <v>185887.094787977</v>
       </c>
       <c r="AE6" t="n">
-        <v>226384.9273154457</v>
+        <v>254338.9238486352</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.992377934356844e-06</v>
+        <v>8.536409905193848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>204779.0675857657</v>
+        <v>230065.1739235171</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.6995043317731</v>
+        <v>183.1300665305834</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.6126396221793</v>
+        <v>250.5666361553688</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.3668017355045</v>
+        <v>226.6529080732558</v>
       </c>
       <c r="AD7" t="n">
-        <v>162699.5043317731</v>
+        <v>183130.0665305834</v>
       </c>
       <c r="AE7" t="n">
-        <v>222612.6396221793</v>
+        <v>250566.6361553688</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.04872196806803e-06</v>
+        <v>8.632751923725886e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.079166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>201366.8017355045</v>
+        <v>226652.9080732559</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.088262145765</v>
+        <v>177.6913007538681</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.2526493438959</v>
+        <v>243.1250768782588</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.045378950439</v>
+        <v>219.9215607692567</v>
       </c>
       <c r="AD8" t="n">
-        <v>147088.262145765</v>
+        <v>177691.3007538681</v>
       </c>
       <c r="AE8" t="n">
-        <v>201252.6493438959</v>
+        <v>243125.0768782588</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.155182537027584e-06</v>
+        <v>8.81478763242589e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.994444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>182045.378950439</v>
+        <v>219921.5607692567</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.8423218315583</v>
+        <v>164.3581353763891</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.8114106052203</v>
+        <v>224.8820517910591</v>
       </c>
       <c r="AC9" t="n">
-        <v>178.0280058036635</v>
+        <v>203.4196243921271</v>
       </c>
       <c r="AD9" t="n">
-        <v>143842.3218315583</v>
+        <v>164358.1353763891</v>
       </c>
       <c r="AE9" t="n">
-        <v>196811.4106052203</v>
+        <v>224882.0517910591</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.212712760922164e-06</v>
+        <v>8.913157903979655e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>178028.0058036635</v>
+        <v>203419.6243921271</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.4078652085662</v>
+        <v>160.923678753397</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.1122355361122</v>
+        <v>220.1828767219509</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.777313407816</v>
+        <v>199.1689319962795</v>
       </c>
       <c r="AD10" t="n">
-        <v>140407.8652085662</v>
+        <v>160923.678753397</v>
       </c>
       <c r="AE10" t="n">
-        <v>192112.2355361122</v>
+        <v>220182.8767219509</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.267722330677031e-06</v>
+        <v>9.007218137862249e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.909722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>173777.313407816</v>
+        <v>199168.9319962795</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.6478041557243</v>
+        <v>158.1636177005551</v>
       </c>
       <c r="AB11" t="n">
-        <v>188.335798238316</v>
+        <v>216.4064394241548</v>
       </c>
       <c r="AC11" t="n">
-        <v>170.3612939854572</v>
+        <v>195.7529125739207</v>
       </c>
       <c r="AD11" t="n">
-        <v>137647.8041557243</v>
+        <v>158163.6177005551</v>
       </c>
       <c r="AE11" t="n">
-        <v>188335.798238316</v>
+        <v>216406.4394241548</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.306570059183163e-06</v>
+        <v>9.073643424323809e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.880555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>170361.2939854572</v>
+        <v>195752.9125739207</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.9795198785112</v>
+        <v>153.495333423342</v>
       </c>
       <c r="AB12" t="n">
-        <v>181.9484457400691</v>
+        <v>210.0190869259079</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.5835414449354</v>
+        <v>189.975160033399</v>
       </c>
       <c r="AD12" t="n">
-        <v>132979.5198785112</v>
+        <v>153495.333423342</v>
       </c>
       <c r="AE12" t="n">
-        <v>181948.4457400691</v>
+        <v>210019.0869259079</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.389010276929003e-06</v>
+        <v>9.214607009333843e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.820833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>164583.5414449354</v>
+        <v>189975.160033399</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.5294722341493</v>
+        <v>153.0452857789801</v>
       </c>
       <c r="AB13" t="n">
-        <v>181.3326706983527</v>
+        <v>209.4033118841915</v>
       </c>
       <c r="AC13" t="n">
-        <v>164.0265351089545</v>
+        <v>189.4181536974181</v>
       </c>
       <c r="AD13" t="n">
-        <v>132529.4722341493</v>
+        <v>153045.2857789801</v>
       </c>
       <c r="AE13" t="n">
-        <v>181332.6706983527</v>
+        <v>209403.3118841915</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.367658853627922e-06</v>
+        <v>9.178098454942754e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.836111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>164026.5351089545</v>
+        <v>189418.1536974181</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.5488703696928</v>
+        <v>151.0646839145236</v>
       </c>
       <c r="AB14" t="n">
-        <v>178.6227238494173</v>
+        <v>206.693365035256</v>
       </c>
       <c r="AC14" t="n">
-        <v>161.5752217838463</v>
+        <v>186.9668403723099</v>
       </c>
       <c r="AD14" t="n">
-        <v>130548.8703696928</v>
+        <v>151064.6839145236</v>
       </c>
       <c r="AE14" t="n">
-        <v>178622.7238494173</v>
+        <v>206693.365035256</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.385451706378822e-06</v>
+        <v>9.208522250268661e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.823611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>161575.2217838463</v>
+        <v>186966.8403723099</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.628968440616</v>
+        <v>151.1447819854468</v>
       </c>
       <c r="AB15" t="n">
-        <v>178.7323175637318</v>
+        <v>206.8029587495705</v>
       </c>
       <c r="AC15" t="n">
-        <v>161.6743560278824</v>
+        <v>187.065974616346</v>
       </c>
       <c r="AD15" t="n">
-        <v>130628.968440616</v>
+        <v>151144.7819854468</v>
       </c>
       <c r="AE15" t="n">
-        <v>178732.3175637318</v>
+        <v>206802.9587495705</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.393310216343803e-06</v>
+        <v>9.221959426537603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>161674.3560278824</v>
+        <v>187065.974616346</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.13847133646452</v>
+        <v>99.49966912453043</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.7537242929992</v>
+        <v>136.1398369117237</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.8972285008594</v>
+        <v>123.1468419503664</v>
       </c>
       <c r="AD2" t="n">
-        <v>83138.47133646451</v>
+        <v>99499.66912453042</v>
       </c>
       <c r="AE2" t="n">
-        <v>113753.7242929992</v>
+        <v>136139.8369117237</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.855346803441453e-06</v>
+        <v>1.2550705116661e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.519444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>102897.2285008594</v>
+        <v>123146.8419503664</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.4604411119663</v>
+        <v>234.5951730372041</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.4882839210856</v>
+        <v>320.9834653579485</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.5279985785368</v>
+        <v>290.3492539274042</v>
       </c>
       <c r="AD2" t="n">
-        <v>206460.4411119663</v>
+        <v>234595.1730372041</v>
       </c>
       <c r="AE2" t="n">
-        <v>282488.2839210856</v>
+        <v>320983.4653579485</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.030564297716719e-06</v>
+        <v>7.426042796941996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.627777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>255527.9985785368</v>
+        <v>290349.2539274042</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.0622757556698</v>
+        <v>159.7335123598077</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.0076289172147</v>
+        <v>218.5544385558074</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.5872517013188</v>
+        <v>197.6959096831849</v>
       </c>
       <c r="AD3" t="n">
-        <v>141062.2757556698</v>
+        <v>159733.5123598077</v>
       </c>
       <c r="AE3" t="n">
-        <v>193007.6289172147</v>
+        <v>218554.4385558074</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.145901553749665e-06</v>
+        <v>9.480976445070747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.406944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>174587.2517013188</v>
+        <v>197695.9096831849</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.1625595723031</v>
+        <v>142.833796176441</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.8846916722852</v>
+        <v>195.4315013108778</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.6711351337917</v>
+        <v>176.7797931156578</v>
       </c>
       <c r="AD4" t="n">
-        <v>124162.5595723031</v>
+        <v>142833.796176441</v>
       </c>
       <c r="AE4" t="n">
-        <v>169884.6916722851</v>
+        <v>195431.5013108779</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.622573508414404e-06</v>
+        <v>1.035921236291669e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>153671.1351337917</v>
+        <v>176779.7931156578</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.1914932100717</v>
+        <v>125.9479811602303</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.6641299648853</v>
+        <v>172.3275842561272</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.6667112454757</v>
+        <v>155.880881478054</v>
       </c>
       <c r="AD5" t="n">
-        <v>107191.4932100717</v>
+        <v>125947.9811602303</v>
       </c>
       <c r="AE5" t="n">
-        <v>146664.1299648853</v>
+        <v>172327.5842561272</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.811348013242236e-06</v>
+        <v>1.070701665240964e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.902777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>132666.7112454757</v>
+        <v>155880.881478054</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.6154288527609</v>
+        <v>122.3719168029194</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.7712009463901</v>
+        <v>167.4346552376321</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.2407565052351</v>
+        <v>151.4549267378134</v>
       </c>
       <c r="AD6" t="n">
-        <v>103615.4288527609</v>
+        <v>122371.9168029194</v>
       </c>
       <c r="AE6" t="n">
-        <v>141771.2009463901</v>
+        <v>167434.655237632</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.893324485061935e-06</v>
+        <v>1.085805277120329e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.848611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>128240.7565052351</v>
+        <v>151454.9267378134</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.1111508346299</v>
+        <v>122.8676387847885</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.4494696316933</v>
+        <v>168.1129239229353</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.8542921791693</v>
+        <v>152.0684624117476</v>
       </c>
       <c r="AD7" t="n">
-        <v>104111.1508346299</v>
+        <v>122867.6387847885</v>
       </c>
       <c r="AE7" t="n">
-        <v>142449.4696316933</v>
+        <v>168112.9239229353</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.892344686593969e-06</v>
+        <v>1.085624755862807e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.848611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>128854.2921791693</v>
+        <v>152068.4624117476</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.6490521832723</v>
+        <v>318.8756857605511</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.3106116114812</v>
+        <v>436.299781059987</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.4872830647175</v>
+        <v>394.6599423062097</v>
       </c>
       <c r="AD2" t="n">
-        <v>289649.0521832723</v>
+        <v>318875.6857605511</v>
       </c>
       <c r="AE2" t="n">
-        <v>396310.6116114812</v>
+        <v>436299.781059987</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.35481694254748e-06</v>
+        <v>5.993135639088965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.509722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>358487.2830647175</v>
+        <v>394659.9423062097</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.3572258413514</v>
+        <v>183.8700951777274</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.8808073250946</v>
+        <v>251.5791759981505</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.4184986962476</v>
+        <v>227.5688125345514</v>
       </c>
       <c r="AD3" t="n">
-        <v>164357.2258413513</v>
+        <v>183870.0951777275</v>
       </c>
       <c r="AE3" t="n">
-        <v>224880.8073250946</v>
+        <v>251579.1759981505</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.760544671637227e-06</v>
+        <v>8.504365639515175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>203418.4986962476</v>
+        <v>227568.8125345514</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.9136861345751</v>
+        <v>167.255963270359</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.3820308605216</v>
+        <v>228.8469877587307</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.0669738802152</v>
+        <v>207.0061524358679</v>
       </c>
       <c r="AD4" t="n">
-        <v>147913.6861345751</v>
+        <v>167255.963270359</v>
       </c>
       <c r="AE4" t="n">
-        <v>202382.0308605216</v>
+        <v>228846.9877587307</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.152815187695713e-06</v>
+        <v>9.205128289225876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.237500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>183066.9738802152</v>
+        <v>207006.1524358679</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.448915607212</v>
+        <v>155.7911927429959</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.6954260350124</v>
+        <v>213.1603829332215</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.8774766029594</v>
+        <v>192.8166551586122</v>
       </c>
       <c r="AD5" t="n">
-        <v>136448.915607212</v>
+        <v>155791.1927429959</v>
       </c>
       <c r="AE5" t="n">
-        <v>186695.4260350124</v>
+        <v>213160.3829332215</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.446035433166285e-06</v>
+        <v>9.728944859049708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.009722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>168877.4766029594</v>
+        <v>192816.6551586122</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.1987115461308</v>
+        <v>141.6262400279353</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.1976681640174</v>
+        <v>193.7792697148757</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.240557377891</v>
+        <v>175.2852481842559</v>
       </c>
       <c r="AD6" t="n">
-        <v>122198.7115461308</v>
+        <v>141626.2400279353</v>
       </c>
       <c r="AE6" t="n">
-        <v>167197.6681640173</v>
+        <v>193779.2697148757</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.539268465640306e-06</v>
+        <v>9.895498867578145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.941666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>151240.5573778909</v>
+        <v>175285.2481842559</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.3639780241908</v>
+        <v>136.7915065059953</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.5825724659129</v>
+        <v>187.1641740167712</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.2567971288663</v>
+        <v>169.3014879352313</v>
       </c>
       <c r="AD7" t="n">
-        <v>117363.9780241908</v>
+        <v>136791.5065059953</v>
       </c>
       <c r="AE7" t="n">
-        <v>160582.5724659129</v>
+        <v>187164.1740167712</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.629671490383244e-06</v>
+        <v>1.00569972738241e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>145256.7971288663</v>
+        <v>169301.4879352313</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.9994023716662</v>
+        <v>132.4269308534707</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.6107675066436</v>
+        <v>181.1923690575019</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.8549328534268</v>
+        <v>163.8996236597918</v>
       </c>
       <c r="AD8" t="n">
-        <v>112999.4023716662</v>
+        <v>132426.9308534707</v>
       </c>
       <c r="AE8" t="n">
-        <v>154610.7675066435</v>
+        <v>181192.3690575019</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.713313941101927e-06</v>
+        <v>1.020641840795079e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.822222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>139854.9328534268</v>
+        <v>163899.6236597918</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.301397045549</v>
+        <v>132.7289255273535</v>
       </c>
       <c r="AB9" t="n">
-        <v>155.0239699425144</v>
+        <v>181.6055714933728</v>
       </c>
       <c r="AC9" t="n">
-        <v>140.2286998287516</v>
+        <v>164.2733906351166</v>
       </c>
       <c r="AD9" t="n">
-        <v>113301.3970455489</v>
+        <v>132728.9255273535</v>
       </c>
       <c r="AE9" t="n">
-        <v>155023.9699425144</v>
+        <v>181605.5714933728</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.699635570401691e-06</v>
+        <v>1.018198299691879e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.830555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>140228.6998287516</v>
+        <v>164273.3906351166</v>
       </c>
     </row>
   </sheetData>
